--- a/results/General Sheet.xlsx
+++ b/results/General Sheet.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11080" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter Investigation" sheetId="3" r:id="rId1"/>
-    <sheet name="old investigation" sheetId="1" r:id="rId2"/>
-    <sheet name="FDM" sheetId="2" r:id="rId3"/>
+    <sheet name="FDM" sheetId="2" r:id="rId2"/>
+    <sheet name="old investigation" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="82">
   <si>
     <t>Factr Investigation</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>First FDM study</t>
+  </si>
+  <si>
+    <t>literature review on adaptivity. Where could you alter the code to define a priori slightly distributions of the collocation points. Skew them towards the center for example and if you can to see if that makes any difference.</t>
+  </si>
+  <si>
+    <t>theres ways to test it without having it go to higher dimensions</t>
   </si>
 </sst>
 </file>
@@ -572,6 +578,14 @@
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -593,14 +607,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,14 +647,11 @@
             <a:pPr>
               <a:defRPr sz="1080" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -674,14 +677,11 @@
           <a:pPr>
             <a:defRPr sz="1080" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -695,10 +695,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12473916666666666"/>
+          <c:x val="0.18127871490771164"/>
           <c:y val="0.18475"/>
-          <c:w val="0.79227861111111109"/>
-          <c:h val="0.65157333333333334"/>
+          <c:w val="0.73573909723891695"/>
+          <c:h val="0.63994898015223578"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -764,14 +764,11 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="tx1"/>
                       </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     </a:defRPr>
                   </a:pPr>
                   <a:endParaRPr lang="en-US"/>
@@ -897,6 +894,56 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000"/>
+                  <a:t>Training Points used</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -921,14 +968,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -959,6 +1003,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000"/>
+                  <a:t>Time taken (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.6736717685711996E-3"/>
+              <c:y val="0.32872882410875448"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -983,14 +1084,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1032,7 +1130,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="900"/>
+        <a:defRPr sz="900">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1046,6 +1150,1025 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1080" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Mean error measured vs training points used</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1080" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24568240040979947"/>
+          <c:y val="0.18843385360031339"/>
+          <c:w val="0.66681395110064046"/>
+          <c:h val="0.60534674091729546"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Parameter Investigation'!$B$12:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Parameter Investigation'!$G$12:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.2480057037084999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.76471460398731E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4909298471183098E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.49870858570551E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0347065951169901E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8976037493723698E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2375914870441401E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.24622909768439E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6395980841099899E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7229023969825703E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A0C-4AAF-9588-DE9FEDF7567A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>v=0.0025/pi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Parameter Investigation'!$B$39:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Parameter Investigation'!$G$39:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.7650201254014203E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0721275416093608E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0609019243281697E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4287982272768702E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0394726237772897E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.122576039763605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6A0C-4AAF-9588-DE9FEDF7567A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="357682864"/>
+        <c:axId val="357684504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="357682864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000"/>
+                  <a:t>Training Points used</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.35443340522260586"/>
+              <c:y val="0.87503615507690491"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357684504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="357684504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000"/>
+                  <a:t>Mean error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7668567173805556E-2"/>
+              <c:y val="0.3286542256589377"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357682864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12814814814814815"/>
+          <c:y val="0.1481723163841808"/>
+          <c:w val="0.80872754629629628"/>
+          <c:h val="0.66818596986817325"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FDM!$A$5:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FDM!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>587.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2232.0823805332102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B13D-4E74-8D4F-8E2290E1E1FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="458173712"/>
+        <c:axId val="458174040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="458173712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6400"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Grid Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48131824146981628"/>
+              <c:y val="0.90185987168270632"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458174040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="800"/>
+        <c:minorUnit val="200"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="458174040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Computational Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458173712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1116,24 +2239,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>FDM!$F$5:$F$9</c:f>
+              <c:f>FDM!$E$5:$E$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-2.9628751285702859</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0892432352534499E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.6959544228553991</c:v>
+                  <c:v>2.0139355917542198E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.0885269100328543</c:v>
+                  <c:v>8.1559224931773499E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.3310929515456777</c:v>
+                  <c:v>4.6655951243451998E-8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.544241909075307</c:v>
+                  <c:v>2.8559992622875399E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1186,27 +2309,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Grid</a:t>
+                  <a:t>Grid Size</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Size</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1231,16 +2346,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -1271,14 +2383,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1293,6 +2402,7 @@
       <c:valAx>
         <c:axId val="490729304"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1318,27 +2428,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>L2</a:t>
+                  <a:t>L2 Error</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> Error</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1356,16 +2458,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -1396,14 +2495,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1445,7 +2541,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="900">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1479,16 +2581,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="960" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1080" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -1512,16 +2611,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="960" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1080" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1530,7 +2626,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24568240040979947"/>
+          <c:y val="0.18843385360031339"/>
+          <c:w val="0.66681395110064046"/>
+          <c:h val="0.60534674091729546"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1677,6 +2783,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000"/>
+                  <a:t>Training Points used</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.35443340522260586"/>
+              <c:y val="0.87503615507690491"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1699,16 +2862,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1721,6 +2881,7 @@
       <c:valAx>
         <c:axId val="357684504"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1739,6 +2900,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000"/>
+                  <a:t>Mean error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7668567173805556E-2"/>
+              <c:y val="0.3286542256589377"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1761,16 +2979,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1812,7 +3027,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="800"/>
+        <a:defRPr sz="900">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2573,63 +3794,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="960" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Time taken vs factr (note log scale)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="960" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2637,9 +3802,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.1500630643165092"/>
-          <c:y val="0.21660436801225158"/>
+          <c:y val="8.0941234389005773E-2"/>
           <c:w val="0.78823696663214116"/>
-          <c:h val="0.62381030072761978"/>
+          <c:h val="0.75947341776855082"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2835,10 +4000,7 @@
                 <a:pPr>
                   <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2868,10 +4030,7 @@
               <a:pPr>
                 <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2906,10 +4065,7 @@
             <a:pPr>
               <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2953,10 +4109,7 @@
                 <a:pPr>
                   <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2986,10 +4139,7 @@
               <a:pPr>
                 <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3024,10 +4174,7 @@
             <a:pPr>
               <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3055,8 +4202,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.60793758618107907"/>
-          <c:y val="0.25302757907828571"/>
+          <c:x val="0.60793772352487063"/>
+          <c:y val="9.2911750130197104E-2"/>
           <c:w val="0.31997507396305741"/>
           <c:h val="0.2098144332505921"/>
         </c:manualLayout>
@@ -3080,10 +4227,7 @@
           <a:pPr>
             <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3104,10 +4248,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -3118,7 +4259,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="800"/>
+        <a:defRPr sz="800">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3145,63 +4290,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="960" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Mean error vs factr (note log scale)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="960" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -3407,10 +4496,7 @@
                 <a:pPr>
                   <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3440,10 +4526,7 @@
               <a:pPr>
                 <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3478,10 +4561,7 @@
             <a:pPr>
               <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3526,10 +4606,7 @@
                 <a:pPr>
                   <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3559,10 +4636,7 @@
               <a:pPr>
                 <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3597,10 +4671,7 @@
             <a:pPr>
               <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3653,10 +4724,7 @@
           <a:pPr>
             <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3677,10 +4745,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -3691,7 +4756,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="800"/>
+        <a:defRPr sz="800">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3718,73 +4787,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Mean</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> e</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>rror vs parameter number</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1938871300846168"/>
+          <c:y val="6.9762691990973291E-2"/>
+          <c:w val="0.73951353416072685"/>
+          <c:h val="0.81925120711429644"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -3912,6 +4927,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000"/>
+                  <a:t>Parameter number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.34023906789847708"/>
+              <c:y val="0.90169802492181039"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3936,14 +5008,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -3975,7 +5044,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000"/>
+                  <a:t>Mean error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.566121946023669E-2"/>
+              <c:y val="0.31798254484512634"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3999,14 +5125,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -4034,10 +5157,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -4048,7 +5168,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="900">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4075,71 +5201,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Mean</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> e</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>rror vs parameter number</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4269,6 +5331,56 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000"/>
+                  <a:t>Parameter number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4293,14 +5405,11 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -4332,6 +5441,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000"/>
+                  <a:t>Time taken (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.7037037037037037E-2"/>
+              <c:y val="0.21705307539682536"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4356,20 +5522,631 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="442097512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="900">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1080" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Time taken vs training points used</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1080" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18127871490771164"/>
+          <c:y val="0.18475"/>
+          <c:w val="0.73573909723891695"/>
+          <c:h val="0.63994898015223578"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>v=0.01/pi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.2608830024917746"/>
+                  <c:y val="-4.3070628182215916E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Parameter Investigation'!$B$12:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Parameter Investigation'!$F$12:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>608.09351110458294</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>398.40929651260302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>216.86293625831601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117.685332775115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104.03811097145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.4289097785949</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.422446250915499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.557783603668199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.475319623947101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.113586902618401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-047F-4F9A-9648-81D1079984E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>v=0.0025/pi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Parameter Investigation'!$B$39:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Parameter Investigation'!$F$39:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>578.686787843704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>479.79432606696997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184.59354424476601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.498661279678302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.020461559295597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.193748712539602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-047F-4F9A-9648-81D1079984E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="446521512"/>
+        <c:axId val="446522496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="446521512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000"/>
+                  <a:t>Training Points used</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446522496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="446522496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000"/>
+                  <a:t>Time taken (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.6736717685711996E-3"/>
+              <c:y val="0.32872882410875448"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446521512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4405,467 +6182,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.22516206443129516"/>
-          <c:y val="8.8379629629629641E-2"/>
-          <c:w val="0.71171367521367523"/>
-          <c:h val="0.63231041666666676"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>FDM!$A$5:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3201</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>FDM!$C$5:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>587.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2232.0823805332102</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B13D-4E74-8D4F-8E2290E1E1FB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="458173712"/>
-        <c:axId val="458174040"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="458173712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="6400"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Grid Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.48131824146981628"/>
-              <c:y val="0.90185987168270632"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="458174040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="800"/>
-        <c:minorUnit val="200"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="458174040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Computational Time (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="458173712"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="900"/>
+        <a:defRPr sz="900">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4919,6 +6242,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6310,7 +7713,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6826,7 +8229,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7342,7 +8745,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7858,7 +9261,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8374,7 +9777,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8890,7 +10293,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9406,7 +10809,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9922,7 +11325,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10438,20 +11841,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>527819</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>99059</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>80946</xdr:rowOff>
+      <xdr:rowOff>84204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>481104</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>52344</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>248089</xdr:rowOff>
+      <xdr:rowOff>251347</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10472,16 +12907,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>547454</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>93184</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>84249</xdr:rowOff>
+      <xdr:rowOff>94019</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>500740</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>46470</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>251392</xdr:rowOff>
+      <xdr:rowOff>261162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10562,16 +12997,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>11204</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>467772</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>36285</xdr:rowOff>
+      <xdr:rowOff>184835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>260403</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>49196</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>30415</xdr:rowOff>
+      <xdr:rowOff>78323</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10592,16 +13027,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>353253</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>94368</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9070</xdr:rowOff>
+      <xdr:rowOff>180032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>73479</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>236069</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>286368</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>73520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10624,16 +13059,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>467179</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>102506</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66854</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>81034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>124278</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>273578</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>79145</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10654,16 +13089,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>226787</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>99786</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>268200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>56531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>544287</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>121558</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>474311</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>54642</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10684,6 +13119,70 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>100532</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>167144</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533769</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>128840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266185</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>111926</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10692,15 +13191,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>117475</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>111475</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>169999</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>157575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15799</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11019,15 +13518,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:I32"/>
+    <sheetView topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8" customWidth="1"/>
+    <col min="2" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" customWidth="1"/>
     <col min="5" max="5" width="6.7265625" customWidth="1"/>
     <col min="6" max="9" width="11.90625" customWidth="1"/>
   </cols>
@@ -11058,21 +13558,27 @@
       <c r="I1" s="44" t="s">
         <v>3</v>
       </c>
+      <c r="L1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="2" spans="1:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
       <c r="J2" t="s">
         <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
@@ -11283,17 +13789,17 @@
     </row>
     <row r="10" spans="1:23" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
       <c r="J11" t="s">
         <v>43</v>
       </c>
@@ -11628,17 +14134,17 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="52"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="60"/>
       <c r="J23" t="s">
         <v>61</v>
       </c>
@@ -11647,13 +14153,13 @@
       <c r="A24" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="58">
+      <c r="B24" s="51">
         <v>8000</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="17">
         <v>10000000</v>
       </c>
       <c r="E24" s="4">
@@ -11685,7 +14191,7 @@
       <c r="C25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="18">
         <v>10000000</v>
       </c>
       <c r="E25" s="5">
@@ -11717,7 +14223,7 @@
       <c r="C26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="18">
         <v>10000000</v>
       </c>
       <c r="E26" s="5">
@@ -11738,7 +14244,7 @@
       <c r="J26" s="20">
         <v>345</v>
       </c>
-      <c r="K26" s="57" t="s">
+      <c r="K26" s="50" t="s">
         <v>58</v>
       </c>
     </row>
@@ -11752,7 +14258,7 @@
       <c r="C27" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="18">
         <v>10000000</v>
       </c>
       <c r="E27" s="5">
@@ -11784,7 +14290,7 @@
       <c r="C28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="18">
         <v>10000000</v>
       </c>
       <c r="E28" s="5">
@@ -11816,7 +14322,7 @@
       <c r="C29" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="18">
         <v>10000000</v>
       </c>
       <c r="E29" s="5">
@@ -11851,7 +14357,7 @@
       <c r="C30" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="46">
         <v>10000000</v>
       </c>
       <c r="E30" s="9">
@@ -11866,7 +14372,7 @@
       <c r="H30" s="24">
         <v>0.115081289517171</v>
       </c>
-      <c r="I30" s="59">
+      <c r="I30" s="52">
         <v>9.74E-2</v>
       </c>
       <c r="J30">
@@ -11882,23 +14388,23 @@
       <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="52"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="60"/>
       <c r="J32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="55" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="39">
@@ -11930,7 +14436,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="63" t="s">
+      <c r="A34" s="56" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="40">
@@ -11959,7 +14465,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="56" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="40">
@@ -11988,7 +14494,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="56" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="40">
@@ -12003,7 +14509,7 @@
       <c r="E36" s="34">
         <v>5000</v>
       </c>
-      <c r="F36" s="61">
+      <c r="F36" s="54">
         <v>104.03811097145</v>
       </c>
       <c r="G36" s="49">
@@ -12017,7 +14523,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="56" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="40">
@@ -12046,7 +14552,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="63" t="s">
+      <c r="A38" s="56" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="40">
@@ -12090,10 +14596,18 @@
       <c r="E39" s="32">
         <v>5000</v>
       </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="16"/>
+      <c r="F39" s="28">
+        <v>578.686787843704</v>
+      </c>
+      <c r="G39" s="26">
+        <v>8.7650201254014203E-3</v>
+      </c>
+      <c r="H39" s="26">
+        <v>6.0788250303105397E-2</v>
+      </c>
+      <c r="I39" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
@@ -12111,10 +14625,18 @@
       <c r="E40" s="33">
         <v>5000</v>
       </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="7"/>
+      <c r="F40" s="29">
+        <v>479.79432606696997</v>
+      </c>
+      <c r="G40" s="21">
+        <v>9.0721275416093608E-3</v>
+      </c>
+      <c r="H40" s="21">
+        <v>4.4924493216151502E-2</v>
+      </c>
+      <c r="I40" s="7">
+        <v>3.5000000000000001E-3</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
@@ -12132,10 +14654,18 @@
       <c r="E41" s="34">
         <v>5000</v>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="7"/>
+      <c r="F41" s="29">
+        <v>184.59354424476601</v>
+      </c>
+      <c r="G41" s="21">
+        <v>4.0609019243281697E-2</v>
+      </c>
+      <c r="H41" s="49">
+        <v>0.22239790954484101</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1.2999999999999999E-3</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
@@ -12153,10 +14683,18 @@
       <c r="E42" s="34">
         <v>5000</v>
       </c>
-      <c r="F42" s="61"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="7"/>
+      <c r="F42" s="54">
+        <v>89.498661279678302</v>
+      </c>
+      <c r="G42" s="49">
+        <v>5.4287982272768702E-2</v>
+      </c>
+      <c r="H42" s="49">
+        <v>0.25820510636724398</v>
+      </c>
+      <c r="I42" s="7">
+        <v>6.7999999999999996E-3</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
@@ -12174,10 +14712,18 @@
       <c r="E43" s="5">
         <v>5000</v>
       </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="7"/>
+      <c r="F43" s="29">
+        <v>58.020461559295597</v>
+      </c>
+      <c r="G43" s="21">
+        <v>4.0394726237772897E-2</v>
+      </c>
+      <c r="H43" s="21">
+        <v>0.21196197041339199</v>
+      </c>
+      <c r="I43" s="7">
+        <v>1.8E-3</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
@@ -12195,10 +14741,18 @@
       <c r="E44" s="9">
         <v>5000</v>
       </c>
-      <c r="F44" s="30"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="10"/>
+      <c r="F44" s="30">
+        <v>49.193748712539602</v>
+      </c>
+      <c r="G44" s="24">
+        <v>0.122576039763605</v>
+      </c>
+      <c r="H44" s="24">
+        <v>0.39504307208329498</v>
+      </c>
+      <c r="I44" s="10">
+        <v>4.4801999999999998E-4</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F45" s="38"/>
@@ -12435,6 +14989,251 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="I300" sqref="I300"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="20">
+        <v>1.25476544588834E+16</v>
+      </c>
+      <c r="F4" s="53">
+        <f>LOG(E4)</f>
+        <v>16.098562550457132</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4">
+        <v>25600</v>
+      </c>
+      <c r="U4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5">
+        <v>2.6</v>
+      </c>
+      <c r="D5">
+        <f>C5/60</f>
+        <v>4.3333333333333335E-2</v>
+      </c>
+      <c r="E5">
+        <v>1.0892432352534499E-3</v>
+      </c>
+      <c r="F5" s="53">
+        <f t="shared" ref="F5:F9" si="0">LOG(E5)</f>
+        <v>-2.9628751285702859</v>
+      </c>
+      <c r="S5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5">
+        <f>0.00007*T4^2 - 0.032*T4 + 9.398</f>
+        <v>45065.398000000001</v>
+      </c>
+      <c r="U5">
+        <f>T5/60</f>
+        <v>751.08996666666667</v>
+      </c>
+      <c r="V5">
+        <f>U5/60</f>
+        <v>12.51816611111111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>800</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6">
+        <v>32.9</v>
+      </c>
+      <c r="D6">
+        <f>C6/60</f>
+        <v>0.54833333333333334</v>
+      </c>
+      <c r="E6" s="20">
+        <v>2.0139355917542198E-5</v>
+      </c>
+      <c r="F6" s="53">
+        <f t="shared" si="0"/>
+        <v>-4.6959544228553991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1600</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7">
+        <v>123</v>
+      </c>
+      <c r="D7">
+        <f>C7/60</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E7" s="20">
+        <v>8.1559224931773499E-7</v>
+      </c>
+      <c r="F7" s="53">
+        <f t="shared" si="0"/>
+        <v>-6.0885269100328543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3201</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8">
+        <v>587.5</v>
+      </c>
+      <c r="D8">
+        <f>C8/60</f>
+        <v>9.7916666666666661</v>
+      </c>
+      <c r="E8" s="20">
+        <v>4.6655951243451998E-8</v>
+      </c>
+      <c r="F8" s="53">
+        <f t="shared" si="0"/>
+        <v>-7.3310929515456777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>6400</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9">
+        <v>2232.0823805332102</v>
+      </c>
+      <c r="D9">
+        <f>C9/60</f>
+        <v>37.20137300888684</v>
+      </c>
+      <c r="E9" s="20">
+        <v>2.8559992622875399E-9</v>
+      </c>
+      <c r="F9" s="53">
+        <f t="shared" si="0"/>
+        <v>-8.544241909075307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19">
+        <v>3270.5994129180899</v>
+      </c>
+      <c r="D19">
+        <f>C19/60</f>
+        <v>54.509990215301499</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20">
+        <v>79.7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12449,13 +15248,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
       <c r="F4" t="s">
         <v>11</v>
       </c>
@@ -12607,12 +15406,12 @@
       <c r="A12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="56" t="s">
+      <c r="P12" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
@@ -12633,10 +15432,10 @@
       <c r="F13" s="16">
         <v>2.8798000000000001E-5</v>
       </c>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
@@ -12658,10 +15457,10 @@
       <c r="F14" s="7">
         <v>1.058E-4</v>
       </c>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
@@ -12681,10 +15480,10 @@
         <v>8.7702261052175406E-2</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
@@ -12706,19 +15505,19 @@
       <c r="F16" s="10">
         <v>1.1573000000000001E-5</v>
       </c>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
     </row>
     <row r="18" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12729,245 +15528,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>200</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="20">
-        <v>1.25476544588834E+16</v>
-      </c>
-      <c r="F4" s="60">
-        <f>LOG(E4)</f>
-        <v>16.098562550457132</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4">
-        <v>25600</v>
-      </c>
-      <c r="U4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>400</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5">
-        <v>2.6</v>
-      </c>
-      <c r="D5">
-        <f>C5/60</f>
-        <v>4.3333333333333335E-2</v>
-      </c>
-      <c r="E5">
-        <v>1.0892432352534499E-3</v>
-      </c>
-      <c r="F5" s="60">
-        <f t="shared" ref="F5:F9" si="0">LOG(E5)</f>
-        <v>-2.9628751285702859</v>
-      </c>
-      <c r="S5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T5">
-        <f>0.00007*T4^2 - 0.032*T4 + 9.398</f>
-        <v>45065.398000000001</v>
-      </c>
-      <c r="U5">
-        <f>T5/60</f>
-        <v>751.08996666666667</v>
-      </c>
-      <c r="V5">
-        <f>U5/60</f>
-        <v>12.51816611111111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>800</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6">
-        <v>32.9</v>
-      </c>
-      <c r="D6">
-        <f>C6/60</f>
-        <v>0.54833333333333334</v>
-      </c>
-      <c r="E6" s="20">
-        <v>2.0139355917542198E-5</v>
-      </c>
-      <c r="F6" s="60">
-        <f t="shared" si="0"/>
-        <v>-4.6959544228553991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>1600</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7">
-        <v>123</v>
-      </c>
-      <c r="D7">
-        <f>C7/60</f>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="E7" s="20">
-        <v>8.1559224931773499E-7</v>
-      </c>
-      <c r="F7" s="60">
-        <f t="shared" si="0"/>
-        <v>-6.0885269100328543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>3201</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8">
-        <v>587.5</v>
-      </c>
-      <c r="D8">
-        <f>C8/60</f>
-        <v>9.7916666666666661</v>
-      </c>
-      <c r="E8" s="20">
-        <v>4.6655951243451998E-8</v>
-      </c>
-      <c r="F8" s="60">
-        <f t="shared" si="0"/>
-        <v>-7.3310929515456777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>6400</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9">
-        <v>2232.0823805332102</v>
-      </c>
-      <c r="D9">
-        <f>C9/60</f>
-        <v>37.20137300888684</v>
-      </c>
-      <c r="E9" s="20">
-        <v>2.8559992622875399E-9</v>
-      </c>
-      <c r="F9" s="60">
-        <f t="shared" si="0"/>
-        <v>-8.544241909075307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19">
-        <v>3270.5994129180899</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20">
-        <v>79.7</v>
-      </c>
-      <c r="E20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/results/General Sheet.xlsx
+++ b/results/General Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11080" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11080" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter Investigation" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="90">
   <si>
     <t>Factr Investigation</t>
   </si>
@@ -267,6 +267,30 @@
   </si>
   <si>
     <t>theres ways to test it without having it go to higher dimensions</t>
+  </si>
+  <si>
+    <t>Biasing</t>
+  </si>
+  <si>
+    <t>8k_NNdef_e7_001pi_biastest</t>
+  </si>
+  <si>
+    <t>0 to 1</t>
+  </si>
+  <si>
+    <t>0 to 3/pi</t>
+  </si>
+  <si>
+    <t>0 to 1 no bias</t>
+  </si>
+  <si>
+    <t>8k_NNdef_e7_001pi_biastest2</t>
+  </si>
+  <si>
+    <t>8k_Nndef_e7_001pi_biastest3</t>
+  </si>
+  <si>
+    <t>8k_NNdef_e7_001pi_rangeadjusted</t>
   </si>
 </sst>
 </file>
@@ -527,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -607,6 +631,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1793,7 +1820,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2052,7 +2078,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2444,7 +2469,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13121,16 +13145,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>562658</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>128607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>100532</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>494393</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>167144</xdr:rowOff>
+      <xdr:rowOff>110878</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13153,16 +13177,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533769</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>27377</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>128840</xdr:rowOff>
+      <xdr:rowOff>160992</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266185</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>587704</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>111926</xdr:rowOff>
+      <xdr:rowOff>144078</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13518,9 +13542,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W92"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14759,97 +14783,279 @@
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F46" s="38"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
+    <row r="46" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="60"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F47" s="38"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
+      <c r="A47" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="65">
+        <v>8000</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="18">
+        <v>10000000</v>
+      </c>
+      <c r="E47" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F47" s="29">
+        <v>215.85521507263101</v>
+      </c>
+      <c r="G47" s="21">
+        <v>2.3937971413045098E-3</v>
+      </c>
+      <c r="H47" s="21">
+        <v>1.4509705023949399E-2</v>
+      </c>
+      <c r="I47" s="7">
+        <v>1.1226E-4</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F48" s="38"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
+      <c r="A48" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="66">
+        <v>8000</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="18">
+        <v>10000000</v>
+      </c>
+      <c r="E48" s="33">
+        <v>5000</v>
+      </c>
+      <c r="F48" s="29">
+        <v>308.12270307540803</v>
+      </c>
+      <c r="G48" s="21">
+        <v>9.4159016988517603E-3</v>
+      </c>
+      <c r="H48" s="21">
+        <v>2.69920616086343E-2</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="J48" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F49" s="38"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="66">
+        <v>8000</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="18">
+        <v>10000000</v>
+      </c>
+      <c r="E49" s="34">
+        <v>5000</v>
+      </c>
+      <c r="F49" s="29">
+        <v>342.18696832656798</v>
+      </c>
+      <c r="G49" s="21">
+        <v>2.1007359942959401E-3</v>
+      </c>
+      <c r="H49" s="49">
+        <v>9.5780617055238604E-3</v>
+      </c>
+      <c r="I49" s="7">
+        <v>9.5452999999999996E-5</v>
+      </c>
+      <c r="J49" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F50" s="38"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="66">
+        <v>8000</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="18">
+        <v>10000000</v>
+      </c>
+      <c r="E50" s="34">
+        <v>5000</v>
+      </c>
+      <c r="F50" s="54">
+        <v>403.35344457626297</v>
+      </c>
+      <c r="G50" s="49">
+        <v>2.7503100918850002E-3</v>
+      </c>
+      <c r="H50" s="49">
+        <v>1.2097230694490301E-2</v>
+      </c>
+      <c r="I50" s="7">
+        <v>1.039E-4</v>
+      </c>
+      <c r="J50" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F51" s="38"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="66">
+        <v>8000</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="18">
+        <v>10000000</v>
+      </c>
+      <c r="E51" s="34">
+        <v>5000</v>
+      </c>
+      <c r="F51" s="29">
+        <v>333.25974106788601</v>
+      </c>
+      <c r="G51" s="21">
+        <v>1.4766566504602499E-3</v>
+      </c>
+      <c r="H51" s="21">
+        <v>4.6200240936638097E-3</v>
+      </c>
+      <c r="I51" s="7">
+        <v>1.1613E-4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F52" s="38"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="67"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="7"/>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F53" s="38"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="13"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="16"/>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F54" s="38"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="13"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="7"/>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F55" s="38"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="13"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="7"/>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F56" s="38"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="13"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="7"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F57" s="38"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="13"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="7"/>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F58" s="38"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="14"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F59" s="38"/>
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F60" s="38"/>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F61" s="38"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F62" s="38"/>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F63" s="38"/>
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F64" s="38"/>
       <c r="G64" s="20"/>
       <c r="H64" s="20"/>
@@ -14975,11 +15181,12 @@
       <c r="F92" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A23:I23"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A46:I46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -14991,7 +15198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+    <sheetView topLeftCell="A272" workbookViewId="0">
       <selection activeCell="I300" sqref="I300"/>
     </sheetView>
   </sheetViews>

--- a/results/General Sheet.xlsx
+++ b/results/General Sheet.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11080" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11080" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter Investigation" sheetId="3" r:id="rId1"/>
-    <sheet name="FDM" sheetId="2" r:id="rId2"/>
-    <sheet name="old investigation" sheetId="1" r:id="rId3"/>
+    <sheet name="Bias Investigation" sheetId="4" r:id="rId2"/>
+    <sheet name="FDM" sheetId="2" r:id="rId3"/>
+    <sheet name="old investigation" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="136">
   <si>
     <t>Factr Investigation</t>
   </si>
@@ -292,6 +293,144 @@
   <si>
     <t>8k_NNdef_e7_001pi_rangeadjusted</t>
   </si>
+  <si>
+    <t>For all bias investigations:</t>
+  </si>
+  <si>
+    <t>factr</t>
+  </si>
+  <si>
+    <t>max iterations</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>training points</t>
+  </si>
+  <si>
+    <t>division number</t>
+  </si>
+  <si>
+    <t>division size</t>
+  </si>
+  <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>8k_bias0_run1</t>
+  </si>
+  <si>
+    <t>8k_bias1_run1</t>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Std Dev</t>
+  </si>
+  <si>
+    <t>0.25 : 0.5 : 0.25</t>
+  </si>
+  <si>
+    <t>0.2 : 0.6 : 0.2</t>
+  </si>
+  <si>
+    <t>0.15 : 0.7 : 0.15</t>
+  </si>
+  <si>
+    <t>0.1 : 0.8 : 0.1</t>
+  </si>
+  <si>
+    <t>0.6, 0.8, 0.6</t>
+  </si>
+  <si>
+    <t>8k_bias0_run0</t>
+  </si>
+  <si>
+    <t>8k_bias1_run0</t>
+  </si>
+  <si>
+    <t>80%...</t>
+  </si>
+  <si>
+    <t>70%...</t>
+  </si>
+  <si>
+    <t>8k_bias2_run0</t>
+  </si>
+  <si>
+    <t>8k_bias3_run0</t>
+  </si>
+  <si>
+    <t>8k_bias3_run1</t>
+  </si>
+  <si>
+    <t>8k_bias2_run1</t>
+  </si>
+  <si>
+    <t>0.6, 0.8, 0.7</t>
+  </si>
+  <si>
+    <t>0.6, 0.8, 0.8</t>
+  </si>
+  <si>
+    <t>0.6, 0.8, 0.9</t>
+  </si>
+  <si>
+    <t>0.6, 0.8, 0.10</t>
+  </si>
+  <si>
+    <t>0.25 : 0.5 : 0.26</t>
+  </si>
+  <si>
+    <t>0.2 : 0.6 : 0.3</t>
+  </si>
+  <si>
+    <t>0.15 : 0.7 : 0.16</t>
+  </si>
+  <si>
+    <t>0.1 : 0.8 : 0.2</t>
+  </si>
+  <si>
+    <t>50%...</t>
+  </si>
+  <si>
+    <t>60%...</t>
+  </si>
+  <si>
+    <t>50% of the points in 40% of the area</t>
+  </si>
+  <si>
+    <t>60% of the points…</t>
+  </si>
+  <si>
+    <t>2,5k_bias0_run0</t>
+  </si>
+  <si>
+    <t>2,5k_bias1_run0</t>
+  </si>
+  <si>
+    <t>2,5k_bias2_run0</t>
+  </si>
+  <si>
+    <t>2,5k_bias3_run0</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
 </sst>
 </file>
 
@@ -301,7 +440,7 @@
     <numFmt numFmtId="164" formatCode="#E+00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,8 +476,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +521,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -610,6 +783,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -631,9 +806,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1771,6 +1983,665 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
+          <c:x val="0.15712270341207349"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.56899693788276462"/>
+          <c:h val="0.74350320793234181"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>8k Points, Biased</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Bias Investigation'!$G$9:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Bias Investigation'!$J$9:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.2488640125852304E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6072221063274301E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.82242784880268E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.47970370899868E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2049460806415002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5720768185244799E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8323629909740499E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.38427413612335E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4EC-41C2-B241-C1C5B772A697}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>8k Points, No Bias</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1.3332999999999999</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Parameter Investigation'!$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.3937971413045098E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A4EC-41C2-B241-C1C5B772A697}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2k Points, Biased</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Bias Investigation'!$G$18:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Bias Investigation'!$J$18:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.7201413965715399E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0163619445984699E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6305701878396701E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0018257112560304E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A4EC-41C2-B241-C1C5B772A697}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2k points, No Bias</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1.3332999999999999</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Parameter Investigation'!$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0347065951169901E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A4EC-41C2-B241-C1C5B772A697}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="532009112"/>
+        <c:axId val="218766840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="532009112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Bias Ratio</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>quite arbitrary scale)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.28451268591426065"/>
+              <c:y val="0.89719889180519097"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="218766840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="218766840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Mean Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532009112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
           <c:x val="0.12814814814814815"/>
           <c:y val="0.1481723163841808"/>
           <c:w val="0.80872754629629628"/>
@@ -2193,7 +3064,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6385,6 +7256,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8769,6 +9680,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -13214,6 +14641,356 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438338</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>118409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>29882</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88475</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="Group 12"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11962208" y="300626"/>
+          <a:ext cx="9309804" cy="5072153"/>
+          <a:chOff x="11091396" y="529291"/>
+          <a:chExt cx="9392956" cy="5199477"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="Picture 7"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15864167" y="3400237"/>
+            <a:ext cx="4620185" cy="2328531"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="12" name="Group 11"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="11091396" y="529291"/>
+            <a:ext cx="9311650" cy="2779806"/>
+            <a:chOff x="11136219" y="566644"/>
+            <a:chExt cx="9311650" cy="2779806"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Picture 6"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15913100" y="1042726"/>
+              <a:ext cx="4534769" cy="2285953"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="11" name="Group 10"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="11136219" y="566644"/>
+              <a:ext cx="4592918" cy="2779806"/>
+              <a:chOff x="11136219" y="566644"/>
+              <a:chExt cx="4592918" cy="2779806"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:graphicFrame macro="">
+            <xdr:nvGraphicFramePr>
+              <xdr:cNvPr id="2" name="Chart 1"/>
+              <xdr:cNvGraphicFramePr/>
+            </xdr:nvGraphicFramePr>
+            <xdr:xfrm>
+              <a:off x="11136219" y="566644"/>
+              <a:ext cx="4592918" cy="2779806"/>
+            </xdr:xfrm>
+            <a:graphic>
+              <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+              </a:graphicData>
+            </a:graphic>
+          </xdr:graphicFrame>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="4" name="Straight Connector 3"/>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipH="1">
+                <a:off x="12758271" y="725394"/>
+                <a:ext cx="6350" cy="2048062"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+                <a:headEnd type="none" w="med" len="med"/>
+                <a:tailEnd type="none" w="med" len="med"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="6" name="Straight Connector 5"/>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipH="1">
+                <a:off x="13818347" y="719044"/>
+                <a:ext cx="6350" cy="2048062"/>
+              </a:xfrm>
+              <a:prstGeom prst="line">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+                <a:headEnd type="none" w="med" len="med"/>
+                <a:tailEnd type="none" w="med" len="med"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="9" name="Oval 8"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="12958109" y="2272926"/>
+                <a:ext cx="254000" cy="237565"/>
+              </a:xfrm>
+              <a:prstGeom prst="ellipse">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="en-GB" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="Arc 9"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="10800000">
+              <a:off x="13180359" y="2013697"/>
+              <a:ext cx="3113741" cy="902074"/>
+            </a:xfrm>
+            <a:prstGeom prst="arc">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 11655414"/>
+                <a:gd name="adj2" fmla="val 0"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>353391</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>88348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>414130</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17951174" y="452783"/>
+          <a:ext cx="60739" cy="3125304"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -13542,9 +15319,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
+    <sheetView zoomScale="79" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13587,17 +15364,17 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
       <c r="J2" t="s">
         <v>11</v>
       </c>
@@ -13813,17 +15590,17 @@
     </row>
     <row r="10" spans="1:23" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="64"/>
       <c r="J11" t="s">
         <v>43</v>
       </c>
@@ -14158,17 +15935,17 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="60"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="62"/>
       <c r="J23" t="s">
         <v>61</v>
       </c>
@@ -14412,17 +16189,17 @@
       <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="60"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="62"/>
       <c r="J32" t="s">
         <v>11</v>
       </c>
@@ -14784,23 +16561,23 @@
       <c r="H45" s="20"/>
     </row>
     <row r="46" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="63" t="s">
+      <c r="A46" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="60"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="62"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="65">
+      <c r="B47" s="58">
         <v>8000</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -14823,13 +16600,16 @@
       </c>
       <c r="I47" s="7">
         <v>1.1226E-4</v>
+      </c>
+      <c r="J47" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="66">
+        <v>88</v>
+      </c>
+      <c r="B48" s="59">
         <v>8000</v>
       </c>
       <c r="C48" s="18" t="s">
@@ -14838,62 +16618,30 @@
       <c r="D48" s="18">
         <v>10000000</v>
       </c>
-      <c r="E48" s="33">
+      <c r="E48" s="34">
         <v>5000</v>
       </c>
-      <c r="F48" s="29">
-        <v>308.12270307540803</v>
-      </c>
-      <c r="G48" s="21">
-        <v>9.4159016988517603E-3</v>
-      </c>
-      <c r="H48" s="21">
-        <v>2.69920616086343E-2</v>
+      <c r="F48" s="54">
+        <v>403.35344457626297</v>
+      </c>
+      <c r="G48" s="49">
+        <v>2.7503100918850002E-3</v>
+      </c>
+      <c r="H48" s="49">
+        <v>1.2097230694490301E-2</v>
       </c>
       <c r="I48" s="7">
-        <v>1.1999999999999999E-3</v>
+        <v>1.039E-4</v>
       </c>
       <c r="J48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="66">
-        <v>8000</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="18">
-        <v>10000000</v>
-      </c>
-      <c r="E49" s="34">
-        <v>5000</v>
-      </c>
-      <c r="F49" s="29">
-        <v>342.18696832656798</v>
-      </c>
-      <c r="G49" s="21">
-        <v>2.1007359942959401E-3</v>
-      </c>
-      <c r="H49" s="49">
-        <v>9.5780617055238604E-3</v>
-      </c>
-      <c r="I49" s="7">
-        <v>9.5452999999999996E-5</v>
-      </c>
-      <c r="J49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="66">
+        <v>83</v>
+      </c>
+      <c r="B50" s="59">
         <v>8000</v>
       </c>
       <c r="C50" s="18" t="s">
@@ -14902,33 +16650,33 @@
       <c r="D50" s="18">
         <v>10000000</v>
       </c>
-      <c r="E50" s="34">
+      <c r="E50" s="33">
         <v>5000</v>
       </c>
-      <c r="F50" s="54">
-        <v>403.35344457626297</v>
-      </c>
-      <c r="G50" s="49">
-        <v>2.7503100918850002E-3</v>
-      </c>
-      <c r="H50" s="49">
-        <v>1.2097230694490301E-2</v>
+      <c r="F50" s="29">
+        <v>308.12270307540803</v>
+      </c>
+      <c r="G50" s="21">
+        <v>9.4159016988517603E-3</v>
+      </c>
+      <c r="H50" s="21">
+        <v>2.69920616086343E-2</v>
       </c>
       <c r="I50" s="7">
-        <v>1.039E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="J50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="66">
+      <c r="A51" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="59">
         <v>8000</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D51" s="18">
@@ -14938,97 +16686,57 @@
         <v>5000</v>
       </c>
       <c r="F51" s="29">
-        <v>333.25974106788601</v>
+        <v>342.18696832656798</v>
       </c>
       <c r="G51" s="21">
-        <v>1.4766566504602499E-3</v>
-      </c>
-      <c r="H51" s="21">
-        <v>4.6200240936638097E-3</v>
+        <v>2.1007359942959401E-3</v>
+      </c>
+      <c r="H51" s="49">
+        <v>9.5780617055238604E-3</v>
       </c>
       <c r="I51" s="7">
-        <v>1.1613E-4</v>
+        <v>9.5452999999999996E-5</v>
       </c>
       <c r="J51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="67"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="7"/>
+      <c r="A52" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="59">
+        <v>8000</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="18">
+        <v>10000000</v>
+      </c>
+      <c r="E52" s="34">
+        <v>5000</v>
+      </c>
+      <c r="F52" s="29">
+        <v>333.25974106788601</v>
+      </c>
+      <c r="G52" s="21">
+        <v>1.4766566504602499E-3</v>
+      </c>
+      <c r="H52" s="21">
+        <v>4.6200240936638097E-3</v>
+      </c>
+      <c r="I52" s="7">
+        <v>1.1613E-4</v>
+      </c>
+      <c r="J52" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="13"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="16"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="13"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="7"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="13"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="7"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="13"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="7"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="13"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="7"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="14"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="10"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F59" s="38"/>
@@ -15196,6 +16904,563 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="67"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="18">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="34">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <f>40/30</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C7" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C8" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" s="78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C9" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="75">
+        <v>8000</v>
+      </c>
+      <c r="E9" s="75">
+        <v>3</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="75">
+        <f>5/2.5</f>
+        <v>2</v>
+      </c>
+      <c r="H9" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="74">
+        <v>260.2</v>
+      </c>
+      <c r="J9" s="74">
+        <v>4.2488640125852304E-3</v>
+      </c>
+      <c r="K9" s="74">
+        <v>2.7196150664271002E-2</v>
+      </c>
+      <c r="L9" s="81">
+        <v>3.0615999999999998E-4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C10" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="73">
+        <v>8000</v>
+      </c>
+      <c r="E10" s="73">
+        <v>3</v>
+      </c>
+      <c r="F10" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="75">
+        <f>6/2</f>
+        <v>3</v>
+      </c>
+      <c r="H10" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="74">
+        <v>323.67</v>
+      </c>
+      <c r="J10" s="74">
+        <v>1.6072221063274301E-3</v>
+      </c>
+      <c r="K10" s="74">
+        <v>8.0899315411814693E-3</v>
+      </c>
+      <c r="L10" s="81">
+        <v>1.5983999999999999E-4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C11" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="73">
+        <v>8000</v>
+      </c>
+      <c r="E11" s="73">
+        <v>3</v>
+      </c>
+      <c r="F11" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="75">
+        <f>7/1.5</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="H11" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="74">
+        <v>259.76</v>
+      </c>
+      <c r="J11" s="74">
+        <v>1.82242784880268E-3</v>
+      </c>
+      <c r="K11" s="74">
+        <v>8.4242252783167E-3</v>
+      </c>
+      <c r="L11" s="81">
+        <v>7.4729999999999998E-5</v>
+      </c>
+      <c r="M11" s="82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C12" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="73">
+        <v>8000</v>
+      </c>
+      <c r="E12" s="73">
+        <v>3</v>
+      </c>
+      <c r="F12" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="75">
+        <f>8/1</f>
+        <v>8</v>
+      </c>
+      <c r="H12" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="74">
+        <v>323.75642228126497</v>
+      </c>
+      <c r="J12" s="74">
+        <v>7.47970370899868E-3</v>
+      </c>
+      <c r="K12" s="74">
+        <v>2.9637786654420399E-2</v>
+      </c>
+      <c r="L12" s="81">
+        <v>9.2113999999999998E-4</v>
+      </c>
+      <c r="M12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C13" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="73">
+        <v>8000</v>
+      </c>
+      <c r="E13" s="73">
+        <v>3</v>
+      </c>
+      <c r="F13" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="75">
+        <f>5/2.5</f>
+        <v>2</v>
+      </c>
+      <c r="H13" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="74">
+        <v>302.75013160705498</v>
+      </c>
+      <c r="J13" s="74">
+        <v>2.2049460806415002E-3</v>
+      </c>
+      <c r="K13" s="74">
+        <v>1.13965165096503E-2</v>
+      </c>
+      <c r="L13" s="81">
+        <v>2.2330000000000001E-4</v>
+      </c>
+      <c r="M13" s="83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C14" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="73">
+        <v>8000</v>
+      </c>
+      <c r="E14" s="73">
+        <v>3</v>
+      </c>
+      <c r="F14" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="75">
+        <f>6/2</f>
+        <v>3</v>
+      </c>
+      <c r="H14" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" s="74">
+        <v>336.44930267333899</v>
+      </c>
+      <c r="J14" s="74">
+        <v>2.5720768185244799E-3</v>
+      </c>
+      <c r="K14" s="74">
+        <v>1.03399548659959E-2</v>
+      </c>
+      <c r="L14" s="81">
+        <v>3.0962999999999997E-4</v>
+      </c>
+      <c r="M14" s="83" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C15" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="73">
+        <v>8000</v>
+      </c>
+      <c r="E15" s="73">
+        <v>3</v>
+      </c>
+      <c r="F15" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="75">
+        <f>7/1.5</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="H15" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="74">
+        <v>268.47458791732703</v>
+      </c>
+      <c r="J15" s="74">
+        <v>1.8323629909740499E-3</v>
+      </c>
+      <c r="K15" s="74">
+        <v>4.1662992684478499E-3</v>
+      </c>
+      <c r="L15" s="81">
+        <v>1.0760999999999999E-4</v>
+      </c>
+      <c r="M15" s="83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C16" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="73">
+        <v>8000</v>
+      </c>
+      <c r="E16" s="73">
+        <v>3</v>
+      </c>
+      <c r="F16" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="75">
+        <f>8/1</f>
+        <v>8</v>
+      </c>
+      <c r="H16" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="74">
+        <v>308.39033603668202</v>
+      </c>
+      <c r="J16" s="74">
+        <v>2.38427413612335E-3</v>
+      </c>
+      <c r="K16" s="74">
+        <v>6.6410735564910702E-3</v>
+      </c>
+      <c r="L16" s="81">
+        <v>1.4899999999999999E-4</v>
+      </c>
+      <c r="M16" s="83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="73">
+        <v>2500</v>
+      </c>
+      <c r="E18" s="73">
+        <v>3</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="75">
+        <f>5/2.5</f>
+        <v>2</v>
+      </c>
+      <c r="H18" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="74">
+        <v>109.93222713470399</v>
+      </c>
+      <c r="J18" s="74">
+        <v>1.7201413965715399E-2</v>
+      </c>
+      <c r="K18" s="74">
+        <v>0.11805720295071299</v>
+      </c>
+      <c r="L18" s="81">
+        <v>1.6752999999999999E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="73">
+        <v>2500</v>
+      </c>
+      <c r="E19" s="73">
+        <v>3</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="75">
+        <f>6/2</f>
+        <v>3</v>
+      </c>
+      <c r="H19" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="74">
+        <v>99.864153623580904</v>
+      </c>
+      <c r="J19" s="74">
+        <v>1.0163619445984699E-2</v>
+      </c>
+      <c r="K19" s="74">
+        <v>6.01173925445855E-2</v>
+      </c>
+      <c r="L19" s="81">
+        <v>2.7883999999999998E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="73">
+        <v>2500</v>
+      </c>
+      <c r="E20" s="73">
+        <v>3</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="75">
+        <f>7/1.5</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="H20" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="74">
+        <v>101.51741313934301</v>
+      </c>
+      <c r="J20" s="74">
+        <v>3.6305701878396701E-3</v>
+      </c>
+      <c r="K20" s="74">
+        <v>2.3130133244623902E-2</v>
+      </c>
+      <c r="L20" s="81">
+        <v>6.7063999999999994E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="73">
+        <v>2500</v>
+      </c>
+      <c r="E21" s="73">
+        <v>3</v>
+      </c>
+      <c r="F21" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="75">
+        <f>8/1</f>
+        <v>8</v>
+      </c>
+      <c r="H21" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="74">
+        <v>118.18180060386599</v>
+      </c>
+      <c r="J21" s="74">
+        <v>7.0018257112560304E-3</v>
+      </c>
+      <c r="K21" s="74">
+        <v>4.7148616969688598E-2</v>
+      </c>
+      <c r="L21" s="81">
+        <v>1.1417999999999999E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:L7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView topLeftCell="A272" workbookViewId="0">
@@ -15439,7 +17704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:S18"/>
   <sheetViews>
@@ -15455,13 +17720,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
       <c r="F4" t="s">
         <v>11</v>
       </c>
@@ -15613,12 +17878,12 @@
       <c r="A12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="64" t="s">
+      <c r="P12" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
@@ -15639,10 +17904,10 @@
       <c r="F13" s="16">
         <v>2.8798000000000001E-5</v>
       </c>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
@@ -15664,10 +17929,10 @@
       <c r="F14" s="7">
         <v>1.058E-4</v>
       </c>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
@@ -15687,10 +17952,10 @@
         <v>8.7702261052175406E-2</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
@@ -15712,19 +17977,19 @@
       <c r="F16" s="10">
         <v>1.1573000000000001E-5</v>
       </c>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
     </row>
     <row r="18" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/results/General Sheet.xlsx
+++ b/results/General Sheet.xlsx
@@ -785,6 +785,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,15 +826,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -822,29 +837,14 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,7 +900,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1156,7 +1155,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1425,7 +1423,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2343,7 +2340,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>quite arbitrary scale)</a:t>
+                  <a:t>arbitrary scale)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3492,7 +3489,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3981,7 +3977,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4348,7 +4343,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4909,7 +4903,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5018,7 +5011,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5405,7 +5397,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5515,7 +5506,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6249,7 +6239,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6516,7 +6505,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6864,7 +6852,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14659,8 +14646,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11962208" y="300626"/>
-          <a:ext cx="9309804" cy="5072153"/>
+          <a:off x="11986871" y="304676"/>
+          <a:ext cx="9345144" cy="5185532"/>
           <a:chOff x="11091396" y="529291"/>
           <a:chExt cx="9392956" cy="5199477"/>
         </a:xfrm>
@@ -14940,50 +14927,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>353391</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>88348</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>414130</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>115957</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Connector 14"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="17951174" y="452783"/>
-          <a:ext cx="60739" cy="3125304"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15364,17 +15307,17 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
       <c r="J2" t="s">
         <v>11</v>
       </c>
@@ -15590,17 +15533,17 @@
     </row>
     <row r="10" spans="1:23" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="64"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="76"/>
       <c r="J11" t="s">
         <v>43</v>
       </c>
@@ -15935,17 +15878,17 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="62"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="74"/>
       <c r="J23" t="s">
         <v>61</v>
       </c>
@@ -16189,17 +16132,17 @@
       <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="74"/>
       <c r="J32" t="s">
         <v>11</v>
       </c>
@@ -16561,17 +16504,17 @@
       <c r="H45" s="20"/>
     </row>
     <row r="46" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="65" t="s">
+      <c r="A46" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="62"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="74"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="55" t="s">
@@ -16906,8 +16849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="75" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16920,10 +16863,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="78"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -16945,7 +16888,7 @@
       <c r="A4" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="60" t="s">
         <v>39</v>
       </c>
     </row>
@@ -16956,83 +16899,83 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="79" t="s">
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="J8" s="78" t="s">
+      <c r="J8" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="78" t="s">
+      <c r="K8" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="L8" s="78" t="s">
+      <c r="L8" s="67" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="64">
         <v>8000</v>
       </c>
-      <c r="E9" s="75">
+      <c r="E9" s="64">
         <v>3</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="75">
+      <c r="G9" s="64">
         <f>5/2.5</f>
         <v>2</v>
       </c>
-      <c r="H9" s="76" t="s">
+      <c r="H9" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="I9" s="74">
+      <c r="I9" s="63">
         <v>260.2</v>
       </c>
-      <c r="J9" s="74">
+      <c r="J9" s="63">
         <v>4.2488640125852304E-3</v>
       </c>
-      <c r="K9" s="74">
+      <c r="K9" s="63">
         <v>2.7196150664271002E-2</v>
       </c>
-      <c r="L9" s="81">
+      <c r="L9" s="68">
         <v>3.0615999999999998E-4</v>
       </c>
       <c r="M9" t="s">
@@ -17040,35 +16983,35 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="62">
         <v>8000</v>
       </c>
-      <c r="E10" s="73">
+      <c r="E10" s="62">
         <v>3</v>
       </c>
-      <c r="F10" s="75" t="s">
+      <c r="F10" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="64">
         <f>6/2</f>
         <v>3</v>
       </c>
-      <c r="H10" s="75" t="s">
+      <c r="H10" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="I10" s="74">
+      <c r="I10" s="63">
         <v>323.67</v>
       </c>
-      <c r="J10" s="74">
+      <c r="J10" s="63">
         <v>1.6072221063274301E-3</v>
       </c>
-      <c r="K10" s="74">
+      <c r="K10" s="63">
         <v>8.0899315411814693E-3</v>
       </c>
-      <c r="L10" s="81">
+      <c r="L10" s="68">
         <v>1.5983999999999999E-4</v>
       </c>
       <c r="M10" t="s">
@@ -17076,71 +17019,71 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="73">
+      <c r="D11" s="62">
         <v>8000</v>
       </c>
-      <c r="E11" s="73">
+      <c r="E11" s="62">
         <v>3</v>
       </c>
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="75">
+      <c r="G11" s="64">
         <f>7/1.5</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="H11" s="75" t="s">
+      <c r="H11" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="I11" s="74">
+      <c r="I11" s="63">
         <v>259.76</v>
       </c>
-      <c r="J11" s="74">
+      <c r="J11" s="63">
         <v>1.82242784880268E-3</v>
       </c>
-      <c r="K11" s="74">
+      <c r="K11" s="63">
         <v>8.4242252783167E-3</v>
       </c>
-      <c r="L11" s="81">
+      <c r="L11" s="68">
         <v>7.4729999999999998E-5</v>
       </c>
-      <c r="M11" s="82" t="s">
+      <c r="M11" s="69" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="62">
         <v>8000</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="62">
         <v>3</v>
       </c>
-      <c r="F12" s="75" t="s">
+      <c r="F12" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="75">
+      <c r="G12" s="64">
         <f>8/1</f>
         <v>8</v>
       </c>
-      <c r="H12" s="75" t="s">
+      <c r="H12" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="74">
+      <c r="I12" s="63">
         <v>323.75642228126497</v>
       </c>
-      <c r="J12" s="74">
+      <c r="J12" s="63">
         <v>7.47970370899868E-3</v>
       </c>
-      <c r="K12" s="74">
+      <c r="K12" s="63">
         <v>2.9637786654420399E-2</v>
       </c>
-      <c r="L12" s="81">
+      <c r="L12" s="68">
         <v>9.2113999999999998E-4</v>
       </c>
       <c r="M12" t="s">
@@ -17148,304 +17091,304 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="62">
         <v>8000</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="62">
         <v>3</v>
       </c>
-      <c r="F13" s="75" t="s">
+      <c r="F13" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="75">
+      <c r="G13" s="64">
         <f>5/2.5</f>
         <v>2</v>
       </c>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="I13" s="74">
+      <c r="I13" s="63">
         <v>302.75013160705498</v>
       </c>
-      <c r="J13" s="74">
+      <c r="J13" s="63">
         <v>2.2049460806415002E-3</v>
       </c>
-      <c r="K13" s="74">
+      <c r="K13" s="63">
         <v>1.13965165096503E-2</v>
       </c>
-      <c r="L13" s="81">
+      <c r="L13" s="68">
         <v>2.2330000000000001E-4</v>
       </c>
-      <c r="M13" s="83" t="s">
+      <c r="M13" s="70" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="62">
         <v>8000</v>
       </c>
-      <c r="E14" s="73">
+      <c r="E14" s="62">
         <v>3</v>
       </c>
-      <c r="F14" s="75" t="s">
+      <c r="F14" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="G14" s="75">
+      <c r="G14" s="64">
         <f>6/2</f>
         <v>3</v>
       </c>
-      <c r="H14" s="75" t="s">
+      <c r="H14" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="I14" s="74">
+      <c r="I14" s="63">
         <v>336.44930267333899</v>
       </c>
-      <c r="J14" s="74">
+      <c r="J14" s="63">
         <v>2.5720768185244799E-3</v>
       </c>
-      <c r="K14" s="74">
+      <c r="K14" s="63">
         <v>1.03399548659959E-2</v>
       </c>
-      <c r="L14" s="81">
+      <c r="L14" s="68">
         <v>3.0962999999999997E-4</v>
       </c>
-      <c r="M14" s="83" t="s">
+      <c r="M14" s="70" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="73">
+      <c r="D15" s="62">
         <v>8000</v>
       </c>
-      <c r="E15" s="73">
+      <c r="E15" s="62">
         <v>3</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="75">
+      <c r="G15" s="64">
         <f>7/1.5</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="H15" s="75" t="s">
+      <c r="H15" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="I15" s="74">
+      <c r="I15" s="63">
         <v>268.47458791732703</v>
       </c>
-      <c r="J15" s="74">
+      <c r="J15" s="63">
         <v>1.8323629909740499E-3</v>
       </c>
-      <c r="K15" s="74">
+      <c r="K15" s="63">
         <v>4.1662992684478499E-3</v>
       </c>
-      <c r="L15" s="81">
+      <c r="L15" s="68">
         <v>1.0760999999999999E-4</v>
       </c>
-      <c r="M15" s="83" t="s">
+      <c r="M15" s="70" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="62">
         <v>8000</v>
       </c>
-      <c r="E16" s="73">
+      <c r="E16" s="62">
         <v>3</v>
       </c>
-      <c r="F16" s="75" t="s">
+      <c r="F16" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="G16" s="75">
+      <c r="G16" s="64">
         <f>8/1</f>
         <v>8</v>
       </c>
-      <c r="H16" s="75" t="s">
+      <c r="H16" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="I16" s="74">
+      <c r="I16" s="63">
         <v>308.39033603668202</v>
       </c>
-      <c r="J16" s="74">
+      <c r="J16" s="63">
         <v>2.38427413612335E-3</v>
       </c>
-      <c r="K16" s="74">
+      <c r="K16" s="63">
         <v>6.6410735564910702E-3</v>
       </c>
-      <c r="L16" s="81">
+      <c r="L16" s="68">
         <v>1.4899999999999999E-4</v>
       </c>
-      <c r="M16" s="83" t="s">
+      <c r="M16" s="70" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="73">
+      <c r="D18" s="62">
         <v>2500</v>
       </c>
-      <c r="E18" s="73">
+      <c r="E18" s="62">
         <v>3</v>
       </c>
-      <c r="F18" s="75" t="s">
+      <c r="F18" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="75">
+      <c r="G18" s="64">
         <f>5/2.5</f>
         <v>2</v>
       </c>
-      <c r="H18" s="76" t="s">
+      <c r="H18" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="I18" s="74">
+      <c r="I18" s="63">
         <v>109.93222713470399</v>
       </c>
-      <c r="J18" s="74">
+      <c r="J18" s="63">
         <v>1.7201413965715399E-2</v>
       </c>
-      <c r="K18" s="74">
+      <c r="K18" s="63">
         <v>0.11805720295071299</v>
       </c>
-      <c r="L18" s="81">
+      <c r="L18" s="68">
         <v>1.6752999999999999E-4</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="73">
+      <c r="D19" s="62">
         <v>2500</v>
       </c>
-      <c r="E19" s="73">
+      <c r="E19" s="62">
         <v>3</v>
       </c>
-      <c r="F19" s="75" t="s">
+      <c r="F19" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="75">
+      <c r="G19" s="64">
         <f>6/2</f>
         <v>3</v>
       </c>
-      <c r="H19" s="75" t="s">
+      <c r="H19" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="I19" s="74">
+      <c r="I19" s="63">
         <v>99.864153623580904</v>
       </c>
-      <c r="J19" s="74">
+      <c r="J19" s="63">
         <v>1.0163619445984699E-2</v>
       </c>
-      <c r="K19" s="74">
+      <c r="K19" s="63">
         <v>6.01173925445855E-2</v>
       </c>
-      <c r="L19" s="81">
+      <c r="L19" s="68">
         <v>2.7883999999999998E-4</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="73">
+      <c r="D20" s="62">
         <v>2500</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="62">
         <v>3</v>
       </c>
-      <c r="F20" s="75" t="s">
+      <c r="F20" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="75">
+      <c r="G20" s="64">
         <f>7/1.5</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="H20" s="75" t="s">
+      <c r="H20" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="I20" s="74">
+      <c r="I20" s="63">
         <v>101.51741313934301</v>
       </c>
-      <c r="J20" s="74">
+      <c r="J20" s="63">
         <v>3.6305701878396701E-3</v>
       </c>
-      <c r="K20" s="74">
+      <c r="K20" s="63">
         <v>2.3130133244623902E-2</v>
       </c>
-      <c r="L20" s="81">
+      <c r="L20" s="68">
         <v>6.7063999999999994E-5</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="73">
+      <c r="D21" s="62">
         <v>2500</v>
       </c>
-      <c r="E21" s="73">
+      <c r="E21" s="62">
         <v>3</v>
       </c>
-      <c r="F21" s="75" t="s">
+      <c r="F21" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="G21" s="75">
+      <c r="G21" s="64">
         <f>8/1</f>
         <v>8</v>
       </c>
-      <c r="H21" s="75" t="s">
+      <c r="H21" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="I21" s="74">
+      <c r="I21" s="63">
         <v>118.18180060386599</v>
       </c>
-      <c r="J21" s="74">
+      <c r="J21" s="63">
         <v>7.0018257112560304E-3</v>
       </c>
-      <c r="K21" s="74">
+      <c r="K21" s="63">
         <v>4.7148616969688598E-2</v>
       </c>
-      <c r="L21" s="81">
+      <c r="L21" s="68">
         <v>1.1417999999999999E-4</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17720,13 +17663,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
       <c r="F4" t="s">
         <v>11</v>
       </c>
@@ -17878,12 +17821,12 @@
       <c r="A12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="66" t="s">
+      <c r="P12" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="84"/>
+      <c r="S12" s="84"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
@@ -17904,10 +17847,10 @@
       <c r="F13" s="16">
         <v>2.8798000000000001E-5</v>
       </c>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
@@ -17929,10 +17872,10 @@
       <c r="F14" s="7">
         <v>1.058E-4</v>
       </c>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
@@ -17952,10 +17895,10 @@
         <v>8.7702261052175406E-2</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
@@ -17977,19 +17920,19 @@
       <c r="F16" s="10">
         <v>1.1573000000000001E-5</v>
       </c>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
     </row>
     <row r="18" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="64"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/results/General Sheet.xlsx
+++ b/results/General Sheet.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11080" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11080" windowHeight="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter Investigation" sheetId="3" r:id="rId1"/>
     <sheet name="Bias Investigation" sheetId="4" r:id="rId2"/>
-    <sheet name="FDM" sheetId="2" r:id="rId3"/>
-    <sheet name="old investigation" sheetId="1" r:id="rId4"/>
+    <sheet name="Type2Bias" sheetId="5" r:id="rId3"/>
+    <sheet name="FDM" sheetId="2" r:id="rId4"/>
+    <sheet name="old investigation" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="139">
   <si>
     <t>Factr Investigation</t>
   </si>
@@ -431,6 +432,15 @@
   <si>
     <t>???</t>
   </si>
+  <si>
+    <t>pt1</t>
+  </si>
+  <si>
+    <t>xdiv</t>
+  </si>
+  <si>
+    <t>case0</t>
+  </si>
 </sst>
 </file>
 
@@ -724,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -846,6 +856,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,6 +913,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1155,6 +1169,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1423,6 +1438,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3489,6 +3505,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3977,6 +3994,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4343,6 +4361,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6239,6 +6258,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6505,6 +6525,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6852,6 +6873,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16849,8 +16871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="75" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView zoomScale="75" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17404,6 +17426,163 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="9" width="13.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="64">
+        <v>2500</v>
+      </c>
+      <c r="D4" s="64">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="64">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="65"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="64"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="85"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="85"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView topLeftCell="A272" workbookViewId="0">
@@ -17647,7 +17826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:S18"/>
   <sheetViews>

--- a/results/General Sheet.xlsx
+++ b/results/General Sheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="139">
   <si>
     <t>Factr Investigation</t>
   </si>
@@ -439,7 +439,7 @@
     <t>xdiv</t>
   </si>
   <si>
-    <t>case0</t>
+    <t>Case 0_results</t>
   </si>
 </sst>
 </file>
@@ -734,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -817,6 +817,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -856,8 +859,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2648,6 +2672,365 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>error</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> vs bias</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Type2Bias!$C$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Type2Bias!$C$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.7099952665768403E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3041335786281497E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.82717324468389E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4947721897162307E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1371568722350499E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8173887093831805E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1034961894986E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22877876166556699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-792C-4505-84EA-3B301BF496C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="549001680"/>
+        <c:axId val="549002664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="549001680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549002664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="549002664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549001680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
@@ -3077,7 +3460,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7305,6 +7688,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9690,6 +10113,522 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14957,6 +15896,41 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>101599</xdr:rowOff>
@@ -15329,17 +16303,17 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
       <c r="J2" t="s">
         <v>11</v>
       </c>
@@ -15555,17 +16529,17 @@
     </row>
     <row r="10" spans="1:23" ht="21.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="76"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="77"/>
       <c r="J11" t="s">
         <v>43</v>
       </c>
@@ -15900,17 +16874,17 @@
       </c>
     </row>
     <row r="23" spans="1:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="74"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="75"/>
       <c r="J23" t="s">
         <v>61</v>
       </c>
@@ -16154,17 +17128,17 @@
       <c r="H31" s="20"/>
     </row>
     <row r="32" spans="1:23" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="75"/>
       <c r="J32" t="s">
         <v>11</v>
       </c>
@@ -16526,17 +17500,17 @@
       <c r="H45" s="20"/>
     </row>
     <row r="46" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="77" t="s">
+      <c r="A46" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="74"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="75"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="55" t="s">
@@ -16885,10 +17859,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="78"/>
+      <c r="B1" s="79"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -16921,20 +17895,20 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="82" t="s">
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C8" s="66" t="s">
@@ -17426,10 +18400,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I13"/>
+  <dimension ref="B2:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17437,147 +18411,198 @@
     <col min="2" max="9" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="79" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="C3" s="91">
+        <v>2500</v>
+      </c>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="93"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="C4" s="91">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="93"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="C5" s="91">
+        <v>0.4</v>
+      </c>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="93"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="C6" s="62">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D6" s="62">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="64">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="62">
+        <v>0.6</v>
+      </c>
+      <c r="H6" s="62">
+        <v>0.7</v>
+      </c>
+      <c r="I6" s="62">
+        <v>0.8</v>
+      </c>
+      <c r="J6" s="62">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="C7" s="63">
+        <v>164.67476129531801</v>
+      </c>
+      <c r="D7" s="63">
+        <v>190.88939642906101</v>
+      </c>
+      <c r="E7" s="86">
+        <v>133.46045684814399</v>
+      </c>
+      <c r="F7" s="87">
+        <v>122.851951122283</v>
+      </c>
+      <c r="G7" s="63">
+        <v>91.901008605957003</v>
+      </c>
+      <c r="H7" s="63">
+        <v>77.341222286224294</v>
+      </c>
+      <c r="I7" s="63">
+        <v>101.304563045501</v>
+      </c>
+      <c r="J7" s="63">
+        <v>108.06644010543801</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="C8" s="63">
+        <v>5.7099952665768403E-3</v>
+      </c>
+      <c r="D8" s="63">
+        <v>4.3041335786281497E-3</v>
+      </c>
+      <c r="E8" s="86">
+        <v>2.82717324468389E-3</v>
+      </c>
+      <c r="F8" s="86">
+        <v>8.4947721897162307E-2</v>
+      </c>
+      <c r="G8" s="63">
+        <v>2.1371568722350499E-2</v>
+      </c>
+      <c r="H8" s="63">
+        <v>9.8173887093831805E-2</v>
+      </c>
+      <c r="I8" s="63">
+        <v>1.1034961894986E-2</v>
+      </c>
+      <c r="J8" s="63">
+        <v>0.22877876166556699</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="67" t="s">
         <v>105</v>
       </c>
+      <c r="C9" s="63">
+        <v>3.74758471031367E-2</v>
+      </c>
+      <c r="D9" s="63">
+        <v>2.9115771914161301E-2</v>
+      </c>
+      <c r="E9" s="86">
+        <v>1.8396133504005499E-2</v>
+      </c>
+      <c r="F9" s="86">
+        <v>0.32531973050388102</v>
+      </c>
+      <c r="G9" s="63">
+        <v>0.122043181137584</v>
+      </c>
+      <c r="H9" s="63">
+        <v>0.34553497832471902</v>
+      </c>
+      <c r="I9" s="63">
+        <v>5.0230909480799099E-2</v>
+      </c>
+      <c r="J9" s="63">
+        <v>0.505046515618509</v>
+      </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="64">
-        <v>2500</v>
-      </c>
-      <c r="D4" s="64">
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="64">
-        <v>0.4</v>
-      </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="72"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="64"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="85"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="85"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:I2"/>
+  <mergeCells count="4">
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17842,13 +18867,13 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:19" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
       <c r="F4" t="s">
         <v>11</v>
       </c>
@@ -18000,12 +19025,12 @@
       <c r="A12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="84" t="s">
+      <c r="P12" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="84"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
@@ -18026,10 +19051,10 @@
       <c r="F13" s="16">
         <v>2.8798000000000001E-5</v>
       </c>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="85"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
@@ -18051,10 +19076,10 @@
       <c r="F14" s="7">
         <v>1.058E-4</v>
       </c>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
@@ -18074,10 +19099,10 @@
         <v>8.7702261052175406E-2</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
@@ -18099,19 +19124,19 @@
       <c r="F16" s="10">
         <v>1.1573000000000001E-5</v>
       </c>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
     </row>
     <row r="18" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="76"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">
